--- a/utils/Skill Exposure.xlsx
+++ b/utils/Skill Exposure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnweshG\Desktop\Skill Exposure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnweshG\Documents\GitHub\Skill-Exposure\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E4188-B2DA-4432-8FA5-FE64299515C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBAD9F4-115C-4640-BD6F-69058916908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61AF94FD-5EA0-4B8E-9D2C-C56CF086742A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>PowerBI, PowerApp, SQL</t>
   </si>
@@ -54,13 +54,46 @@
     <t>Developed a Web-app that uses Github's GraphQL API to get data and build a 3D version of GitHub Contribution Calendar using Three.js</t>
   </si>
   <si>
-    <t>Three.js, GraphQL, API</t>
-  </si>
-  <si>
-    <t>Web Development, WebGL</t>
-  </si>
-  <si>
     <t>Created a PowerApp that integrates with PowerBI allowing you to make changes to data in real-time from within a PowerBI Report</t>
+  </si>
+  <si>
+    <t>Developed a Web-app which highlights terms given by user as a csv file in a pdf file uploaded by user.</t>
+  </si>
+  <si>
+    <t>Python, Node.js, Azure</t>
+  </si>
+  <si>
+    <t>Web Development, Automation</t>
+  </si>
+  <si>
+    <t>XML, XSL, RegEx</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Created an XSL Script to manipulate an XML for Navisworks viewpoints - which organizes the viewpoints based on few parameters</t>
+  </si>
+  <si>
+    <t>Created a shortcut using Auto-Hotkey that lets user sequentially rename multiple files/viewpoint in Windows. This is used in Navisworks to automate a repetitive task</t>
+  </si>
+  <si>
+    <t>Auto-Hotkey, RegEx</t>
+  </si>
+  <si>
+    <t>Three.js, GraphQL, Azure Functions</t>
+  </si>
+  <si>
+    <t>Web Development, WebGL, API</t>
+  </si>
+  <si>
+    <t>Developed a PowerBI Dashboard that extract data using BIMTrack API and visualizes the Navisworks clashes data for better insight into the coordination of the project</t>
+  </si>
+  <si>
+    <t>PowerBI</t>
+  </si>
+  <si>
+    <t>API, Data Visualization, Data Analysis</t>
   </si>
 </sst>
 </file>
@@ -116,8 +149,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E386D44B-3D0B-4E20-B087-25150691D86D}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{E386D44B-3D0B-4E20-B087-25150691D86D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E386D44B-3D0B-4E20-B087-25150691D86D}" name="Table2" displayName="Table2" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{E386D44B-3D0B-4E20-B087-25150691D86D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F0744A68-16F2-4A1C-A71C-9A612FE97AD7}" name="Description"/>
     <tableColumn id="2" xr3:uid="{F123B7FC-C28A-4A87-8448-0FED12076CA0}" name="Tags"/>
@@ -424,16 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90668FFD-4757-460C-81E3-429AF9E388A0}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="108.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,7 +483,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -464,10 +497,54 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
